--- a/xl/collab_filter.xlsx
+++ b/xl/collab_filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course22\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhoward/Documents/GitHub/course22/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8732BA4-15DD-4A6E-A723-7EDCA429662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A4FDF-0908-084B-8AEA-0D000C9749DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37420" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dotprod" sheetId="1" r:id="rId1"/>
@@ -2212,6 +2212,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="3">
+    <format dxfId="8">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -2311,13 +2418,13 @@
     <i/>
   </colItems>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -2337,116 +2444,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <formats count="3">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="1" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
       <items count="16">
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A25:G39" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A20:G34" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Word id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vocab" dataDxfId="5"/>
@@ -2849,18 +2849,18 @@
       <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="22" width="5.90625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="5.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G3" s="2">
         <v>29</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G4" s="2">
         <v>72</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G5" s="2">
         <v>211</v>
       </c>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G6" s="2">
         <v>212</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G7" s="2">
         <v>293</v>
       </c>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G8" s="2">
         <v>310</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G9" s="2">
         <v>379</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G10" s="2">
         <v>451</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G11" s="2">
         <v>467</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G12" s="2">
         <v>508</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G13" s="2">
         <v>546</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G14" s="2">
         <v>563</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G15" s="2">
         <v>579</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G16" s="2">
         <v>623</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0.42820605638239884</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0.80742452867520764</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0.17370394356127128</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H22" s="4">
         <v>3.9224256210796504E-2</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0.29870015708068542</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0.28815103814999543</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>0.19116638616919113</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0.92484729006542488</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>0.25247970905003203</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1.36234908697048</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>0.2960607456149863</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.72107868471123793</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>1.5234780548209481E-2</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>0.60438923001101774</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1.1964278163768021</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>0.73399911522134131</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>0.22945716084719503</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.99025404493173486</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>0.68397294881563286</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1.5464124958322141</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>0.81473677881569317</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>0.91958024606249222</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>0.69782831077215757</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>1.285554018331811</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>0.49690192076528272</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.93255229764485703</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>0.15744453099172273</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.79518983086341311</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>0.91455628897639196</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>1.2146412686465133</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>0.55264059126181653</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>1.2917907781340177</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>0.93505372833970124</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>0.81454186322389277</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="V41" s="5">
         <f>SQRT(SUMXMY2(H2:V16,H25:V39)/COUNT(H2:V16))</f>
         <v>2.8060620616483134</v>
@@ -5143,19 +5143,19 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.6328125" customWidth="1"/>
-    <col min="19" max="23" width="4.6328125" customWidth="1"/>
-    <col min="26" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.6640625" customWidth="1"/>
+    <col min="19" max="23" width="4.6640625" customWidth="1"/>
+    <col min="26" max="26" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I1" s="50" t="s">
         <v>14</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>2.8060620616483143</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="Z4" s="53"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="Z5" s="53"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A18" si="4">A5+1</f>
         <v>3</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="Z6" s="53"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="Z7" s="53"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="Z8" s="53"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="Z9" s="53"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="Z10" s="53"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="Z11" s="53"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="Z12" s="53"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="Z13" s="53"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="Z14" s="53"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="Z15" s="53"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="Z16" s="53"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="Z17" s="53"/>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="Z18" s="53"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="Z19" s="53"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="Z20" s="53"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="Z21" s="53"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="Z22" s="53"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>A22+1</f>
         <v>2</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="Z23" s="53"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ref="A24:A36" si="5">A23+1</f>
         <v>3</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="Z24" s="53"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="Z25" s="53"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="Z26" s="53"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="Z27" s="53"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="Z28" s="53"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="Z29" s="53"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="Z31" s="53"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="Z32" s="53"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="Z33" s="53"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="Z34" s="53"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="Z35" s="53"/>
     </row>
-    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="Z36" s="53"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I37" s="20">
         <v>310</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="Z37" s="53"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I38" s="20">
         <v>379</v>
       </c>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="Z38" s="53"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I39" s="20">
         <v>451</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="Z39" s="53"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I40" s="20">
         <v>467</v>
       </c>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="Z40" s="53"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I41" s="20">
         <v>508</v>
       </c>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="Z41" s="53"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I42" s="20">
         <v>563</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="Z42" s="53"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I43" s="20">
         <v>579</v>
       </c>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="Z43" s="53"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I44" s="20">
         <v>623</v>
       </c>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z44" s="53"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I45" s="20">
         <v>14</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="Z45" s="53"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I46" s="20">
         <v>29</v>
       </c>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="Z46" s="53"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I47" s="20">
         <v>72</v>
       </c>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="Z47" s="53"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I48" s="20">
         <v>211</v>
       </c>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="Z48" s="53"/>
     </row>
-    <row r="49" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I49" s="20">
         <v>310</v>
       </c>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="Z49" s="53"/>
     </row>
-    <row r="50" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I50" s="20">
         <v>379</v>
       </c>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="Z50" s="53"/>
     </row>
-    <row r="51" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I51" s="20">
         <v>451</v>
       </c>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="Z51" s="53"/>
     </row>
-    <row r="52" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I52" s="20">
         <v>467</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="Z52" s="53"/>
     </row>
-    <row r="53" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I53" s="20">
         <v>508</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="Z53" s="53"/>
     </row>
-    <row r="54" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I54" s="20">
         <v>546</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="Z54" s="53"/>
     </row>
-    <row r="55" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I55" s="20">
         <v>563</v>
       </c>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="Z55" s="53"/>
     </row>
-    <row r="56" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I56" s="20">
         <v>579</v>
       </c>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="Z56" s="53"/>
     </row>
-    <row r="57" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I57" s="20">
         <v>623</v>
       </c>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="Z57" s="53"/>
     </row>
-    <row r="58" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I58" s="20">
         <v>14</v>
       </c>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="Z58" s="53"/>
     </row>
-    <row r="59" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I59" s="20">
         <v>29</v>
       </c>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="Z59" s="53"/>
     </row>
-    <row r="60" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I60" s="20">
         <v>72</v>
       </c>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="Z60" s="53"/>
     </row>
-    <row r="61" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I61" s="20">
         <v>211</v>
       </c>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="Z61" s="53"/>
     </row>
-    <row r="62" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I62" s="20">
         <v>293</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="Z62" s="53"/>
     </row>
-    <row r="63" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I63" s="20">
         <v>310</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="Z63" s="53"/>
     </row>
-    <row r="64" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I64" s="20">
         <v>379</v>
       </c>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="Z64" s="53"/>
     </row>
-    <row r="65" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I65" s="20">
         <v>451</v>
       </c>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="Z65" s="53"/>
     </row>
-    <row r="66" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I66" s="20">
         <v>467</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="Z66" s="53"/>
     </row>
-    <row r="67" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I67" s="20">
         <v>508</v>
       </c>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="Z67" s="53"/>
     </row>
-    <row r="68" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I68" s="20">
         <v>546</v>
       </c>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="Z68" s="53"/>
     </row>
-    <row r="69" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I69" s="20">
         <v>579</v>
       </c>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="Z69" s="53"/>
     </row>
-    <row r="70" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I70" s="20">
         <v>14</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="Z70" s="53"/>
     </row>
-    <row r="71" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I71" s="20">
         <v>29</v>
       </c>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="Z71" s="53"/>
     </row>
-    <row r="72" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I72" s="20">
         <v>72</v>
       </c>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="Z72" s="53"/>
     </row>
-    <row r="73" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I73" s="20">
         <v>211</v>
       </c>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="Z73" s="53"/>
     </row>
-    <row r="74" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I74" s="20">
         <v>212</v>
       </c>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="Z74" s="53"/>
     </row>
-    <row r="75" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I75" s="20">
         <v>293</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="Z75" s="53"/>
     </row>
-    <row r="76" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I76" s="20">
         <v>310</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="Z76" s="53"/>
     </row>
-    <row r="77" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I77" s="20">
         <v>379</v>
       </c>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="Z77" s="53"/>
     </row>
-    <row r="78" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I78" s="20">
         <v>451</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="Z78" s="53"/>
     </row>
-    <row r="79" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I79" s="20">
         <v>467</v>
       </c>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="Z79" s="53"/>
     </row>
-    <row r="80" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I80" s="20">
         <v>508</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="Z80" s="53"/>
     </row>
-    <row r="81" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I81" s="20">
         <v>546</v>
       </c>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="Z81" s="53"/>
     </row>
-    <row r="82" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I82" s="20">
         <v>563</v>
       </c>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="Z82" s="53"/>
     </row>
-    <row r="83" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I83" s="20">
         <v>579</v>
       </c>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="Z83" s="53"/>
     </row>
-    <row r="84" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I84" s="20">
         <v>623</v>
       </c>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="Z84" s="53"/>
     </row>
-    <row r="85" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I85" s="20">
         <v>14</v>
       </c>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="Z85" s="53"/>
     </row>
-    <row r="86" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I86" s="20">
         <v>29</v>
       </c>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="Z86" s="53"/>
     </row>
-    <row r="87" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I87" s="20">
         <v>72</v>
       </c>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="Z87" s="53"/>
     </row>
-    <row r="88" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I88" s="20">
         <v>211</v>
       </c>
@@ -11820,7 +11820,7 @@
       </c>
       <c r="Z88" s="53"/>
     </row>
-    <row r="89" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I89" s="20">
         <v>212</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="Z89" s="53"/>
     </row>
-    <row r="90" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I90" s="20">
         <v>293</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="Z90" s="53"/>
     </row>
-    <row r="91" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I91" s="20">
         <v>310</v>
       </c>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="Z91" s="53"/>
     </row>
-    <row r="92" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I92" s="20">
         <v>379</v>
       </c>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="Z92" s="53"/>
     </row>
-    <row r="93" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I93" s="20">
         <v>451</v>
       </c>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="Z93" s="53"/>
     </row>
-    <row r="94" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I94" s="20">
         <v>467</v>
       </c>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="Z94" s="53"/>
     </row>
-    <row r="95" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I95" s="20">
         <v>508</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="Z95" s="53"/>
     </row>
-    <row r="96" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I96" s="20">
         <v>546</v>
       </c>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="Z96" s="53"/>
     </row>
-    <row r="97" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I97" s="20">
         <v>563</v>
       </c>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="Z97" s="53"/>
     </row>
-    <row r="98" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I98" s="20">
         <v>579</v>
       </c>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="Z98" s="53"/>
     </row>
-    <row r="99" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I99" s="20">
         <v>623</v>
       </c>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="Z99" s="53"/>
     </row>
-    <row r="100" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I100" s="20">
         <v>14</v>
       </c>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="Z100" s="53"/>
     </row>
-    <row r="101" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I101" s="20">
         <v>29</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="Z101" s="53"/>
     </row>
-    <row r="102" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I102" s="20">
         <v>72</v>
       </c>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="Z102" s="53"/>
     </row>
-    <row r="103" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I103" s="20">
         <v>211</v>
       </c>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="Z103" s="53"/>
     </row>
-    <row r="104" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I104" s="20">
         <v>293</v>
       </c>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="Z104" s="53"/>
     </row>
-    <row r="105" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I105" s="20">
         <v>310</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="Z105" s="53"/>
     </row>
-    <row r="106" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I106" s="20">
         <v>451</v>
       </c>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="Z106" s="53"/>
     </row>
-    <row r="107" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I107" s="20">
         <v>508</v>
       </c>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="Z107" s="53"/>
     </row>
-    <row r="108" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I108" s="20">
         <v>546</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="Z108" s="53"/>
     </row>
-    <row r="109" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I109" s="20">
         <v>563</v>
       </c>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="Z109" s="53"/>
     </row>
-    <row r="110" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I110" s="20">
         <v>579</v>
       </c>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="Z110" s="53"/>
     </row>
-    <row r="111" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I111" s="20">
         <v>14</v>
       </c>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="Z111" s="53"/>
     </row>
-    <row r="112" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I112" s="20">
         <v>29</v>
       </c>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="Z112" s="53"/>
     </row>
-    <row r="113" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I113" s="20">
         <v>72</v>
       </c>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="Z113" s="53"/>
     </row>
-    <row r="114" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I114" s="20">
         <v>211</v>
       </c>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="Z114" s="53"/>
     </row>
-    <row r="115" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I115" s="20">
         <v>212</v>
       </c>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="Z115" s="53"/>
     </row>
-    <row r="116" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I116" s="20">
         <v>293</v>
       </c>
@@ -13724,7 +13724,7 @@
       </c>
       <c r="Z116" s="53"/>
     </row>
-    <row r="117" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I117" s="20">
         <v>310</v>
       </c>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="Z117" s="53"/>
     </row>
-    <row r="118" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I118" s="20">
         <v>379</v>
       </c>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="Z118" s="53"/>
     </row>
-    <row r="119" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I119" s="20">
         <v>451</v>
       </c>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="Z119" s="53"/>
     </row>
-    <row r="120" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I120" s="20">
         <v>508</v>
       </c>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="Z120" s="53"/>
     </row>
-    <row r="121" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I121" s="20">
         <v>563</v>
       </c>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="Z121" s="53"/>
     </row>
-    <row r="122" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I122" s="20">
         <v>579</v>
       </c>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="Z122" s="53"/>
     </row>
-    <row r="123" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I123" s="20">
         <v>623</v>
       </c>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="Z123" s="53"/>
     </row>
-    <row r="124" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I124" s="20">
         <v>14</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="Z124" s="53"/>
     </row>
-    <row r="125" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I125" s="20">
         <v>29</v>
       </c>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="Z125" s="53"/>
     </row>
-    <row r="126" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I126" s="20">
         <v>72</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="Z126" s="53"/>
     </row>
-    <row r="127" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I127" s="20">
         <v>211</v>
       </c>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="Z127" s="53"/>
     </row>
-    <row r="128" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I128" s="20">
         <v>212</v>
       </c>
@@ -14540,7 +14540,7 @@
       </c>
       <c r="Z128" s="53"/>
     </row>
-    <row r="129" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I129" s="20">
         <v>310</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="Z129" s="53"/>
     </row>
-    <row r="130" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I130" s="20">
         <v>379</v>
       </c>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="Z130" s="53"/>
     </row>
-    <row r="131" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I131" s="20">
         <v>451</v>
       </c>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="Z131" s="53"/>
     </row>
-    <row r="132" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I132" s="20">
         <v>467</v>
       </c>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="Z132" s="53"/>
     </row>
-    <row r="133" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I133" s="20">
         <v>508</v>
       </c>
@@ -14880,7 +14880,7 @@
       </c>
       <c r="Z133" s="53"/>
     </row>
-    <row r="134" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I134" s="20">
         <v>546</v>
       </c>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="Z134" s="53"/>
     </row>
-    <row r="135" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I135" s="20">
         <v>563</v>
       </c>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="Z135" s="53"/>
     </row>
-    <row r="136" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I136" s="20">
         <v>579</v>
       </c>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="Z136" s="53"/>
     </row>
-    <row r="137" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I137" s="20">
         <v>623</v>
       </c>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="Z137" s="53"/>
     </row>
-    <row r="138" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I138" s="20">
         <v>14</v>
       </c>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="Z138" s="53"/>
     </row>
-    <row r="139" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I139" s="20">
         <v>29</v>
       </c>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="Z139" s="53"/>
     </row>
-    <row r="140" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I140" s="20">
         <v>72</v>
       </c>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="Z140" s="53"/>
     </row>
-    <row r="141" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I141" s="20">
         <v>212</v>
       </c>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="Z141" s="53"/>
     </row>
-    <row r="142" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I142" s="20">
         <v>310</v>
       </c>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="Z142" s="53"/>
     </row>
-    <row r="143" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I143" s="20">
         <v>379</v>
       </c>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="Z143" s="53"/>
     </row>
-    <row r="144" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I144" s="20">
         <v>451</v>
       </c>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="Z144" s="53"/>
     </row>
-    <row r="145" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I145" s="20">
         <v>467</v>
       </c>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="Z145" s="53"/>
     </row>
-    <row r="146" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I146" s="20">
         <v>508</v>
       </c>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="Z146" s="53"/>
     </row>
-    <row r="147" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I147" s="20">
         <v>546</v>
       </c>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="Z147" s="53"/>
     </row>
-    <row r="148" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I148" s="20">
         <v>563</v>
       </c>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="Z148" s="53"/>
     </row>
-    <row r="149" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I149" s="20">
         <v>579</v>
       </c>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="Z149" s="53"/>
     </row>
-    <row r="150" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I150" s="20">
         <v>623</v>
       </c>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="Z150" s="53"/>
     </row>
-    <row r="151" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I151" s="20">
         <v>14</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="Z151" s="53"/>
     </row>
-    <row r="152" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I152" s="20">
         <v>29</v>
       </c>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="Z152" s="53"/>
     </row>
-    <row r="153" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I153" s="20">
         <v>72</v>
       </c>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="Z153" s="53"/>
     </row>
-    <row r="154" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I154" s="20">
         <v>212</v>
       </c>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="Z154" s="53"/>
     </row>
-    <row r="155" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I155" s="20">
         <v>293</v>
       </c>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="Z155" s="53"/>
     </row>
-    <row r="156" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I156" s="20">
         <v>310</v>
       </c>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="Z156" s="53"/>
     </row>
-    <row r="157" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I157" s="20">
         <v>379</v>
       </c>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="Z157" s="53"/>
     </row>
-    <row r="158" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I158" s="20">
         <v>451</v>
       </c>
@@ -16572,15 +16572,15 @@
       </c>
       <c r="X158" s="55">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4169565804215103</v>
+        <v>1.4169565804215105</v>
       </c>
       <c r="Y158" s="55">
         <f t="shared" ca="1" si="13"/>
-        <v>6.6721133074277379</v>
+        <v>6.6721133074277352</v>
       </c>
       <c r="Z158" s="53"/>
     </row>
-    <row r="159" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I159" s="20">
         <v>467</v>
       </c>
@@ -16648,7 +16648,7 @@
       </c>
       <c r="Z159" s="53"/>
     </row>
-    <row r="160" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I160" s="20">
         <v>508</v>
       </c>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="Z160" s="53"/>
     </row>
-    <row r="161" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I161" s="20">
         <v>546</v>
       </c>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="Z161" s="53"/>
     </row>
-    <row r="162" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I162" s="20">
         <v>563</v>
       </c>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="Z162" s="53"/>
     </row>
-    <row r="163" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I163" s="20">
         <v>579</v>
       </c>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="Z163" s="53"/>
     </row>
-    <row r="164" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I164" s="20">
         <v>623</v>
       </c>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="Z164" s="53"/>
     </row>
-    <row r="165" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I165" s="20">
         <v>14</v>
       </c>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="Z165" s="53"/>
     </row>
-    <row r="166" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I166" s="20">
         <v>29</v>
       </c>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="Z166" s="53"/>
     </row>
-    <row r="167" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I167" s="20">
         <v>72</v>
       </c>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="Z167" s="53"/>
     </row>
-    <row r="168" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I168" s="20">
         <v>211</v>
       </c>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="Z168" s="53"/>
     </row>
-    <row r="169" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I169" s="20">
         <v>212</v>
       </c>
@@ -17328,7 +17328,7 @@
       </c>
       <c r="Z169" s="53"/>
     </row>
-    <row r="170" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I170" s="20">
         <v>293</v>
       </c>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="Z170" s="53"/>
     </row>
-    <row r="171" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I171" s="20">
         <v>310</v>
       </c>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="Z171" s="53"/>
     </row>
-    <row r="172" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I172" s="20">
         <v>451</v>
       </c>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="Z172" s="53"/>
     </row>
-    <row r="173" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I173" s="20">
         <v>467</v>
       </c>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="Z173" s="53"/>
     </row>
-    <row r="174" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I174" s="20">
         <v>508</v>
       </c>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="Z174" s="53"/>
     </row>
-    <row r="175" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I175" s="20">
         <v>546</v>
       </c>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="Z175" s="53"/>
     </row>
-    <row r="176" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I176" s="20">
         <v>563</v>
       </c>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="Z176" s="53"/>
     </row>
-    <row r="177" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I177" s="20">
         <v>579</v>
       </c>
@@ -17872,7 +17872,7 @@
       </c>
       <c r="Z177" s="53"/>
     </row>
-    <row r="178" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I178" s="20">
         <v>623</v>
       </c>
@@ -17940,7 +17940,7 @@
       </c>
       <c r="Z178" s="53"/>
     </row>
-    <row r="179" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I179" s="20">
         <v>14</v>
       </c>
@@ -18008,7 +18008,7 @@
       </c>
       <c r="Z179" s="53"/>
     </row>
-    <row r="180" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I180" s="20">
         <v>29</v>
       </c>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="Z180" s="53"/>
     </row>
-    <row r="181" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I181" s="20">
         <v>72</v>
       </c>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="Z181" s="53"/>
     </row>
-    <row r="182" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I182" s="20">
         <v>211</v>
       </c>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="Z182" s="53"/>
     </row>
-    <row r="183" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I183" s="20">
         <v>212</v>
       </c>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="Z183" s="53"/>
     </row>
-    <row r="184" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I184" s="20">
         <v>293</v>
       </c>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="Z184" s="53"/>
     </row>
-    <row r="185" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I185" s="20">
         <v>310</v>
       </c>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="Z185" s="53"/>
     </row>
-    <row r="186" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I186" s="20">
         <v>379</v>
       </c>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="Z186" s="53"/>
     </row>
-    <row r="187" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I187" s="20">
         <v>451</v>
       </c>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="Z187" s="53"/>
     </row>
-    <row r="188" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I188" s="20">
         <v>467</v>
       </c>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="Z188" s="53"/>
     </row>
-    <row r="189" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I189" s="20">
         <v>508</v>
       </c>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="Z189" s="53"/>
     </row>
-    <row r="190" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I190" s="20">
         <v>546</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="Z190" s="53"/>
     </row>
-    <row r="191" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I191" s="20">
         <v>563</v>
       </c>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="Z191" s="53"/>
     </row>
-    <row r="192" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I192" s="20">
         <v>579</v>
       </c>
@@ -18892,7 +18892,7 @@
       </c>
       <c r="Z192" s="53"/>
     </row>
-    <row r="193" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I193" s="20">
         <v>623</v>
       </c>
@@ -18960,7 +18960,7 @@
       </c>
       <c r="Z193" s="53"/>
     </row>
-    <row r="194" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I194" s="20">
         <v>14</v>
       </c>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="Z194" s="53"/>
     </row>
-    <row r="195" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I195" s="20">
         <v>29</v>
       </c>
@@ -19096,7 +19096,7 @@
       </c>
       <c r="Z195" s="53"/>
     </row>
-    <row r="196" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I196" s="20">
         <v>72</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
       <c r="Z196" s="53"/>
     </row>
-    <row r="197" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I197" s="20">
         <v>211</v>
       </c>
@@ -19232,7 +19232,7 @@
       </c>
       <c r="Z197" s="53"/>
     </row>
-    <row r="198" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I198" s="20">
         <v>212</v>
       </c>
@@ -19300,7 +19300,7 @@
       </c>
       <c r="Z198" s="53"/>
     </row>
-    <row r="199" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I199" s="20">
         <v>293</v>
       </c>
@@ -19368,7 +19368,7 @@
       </c>
       <c r="Z199" s="53"/>
     </row>
-    <row r="200" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I200" s="20">
         <v>310</v>
       </c>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="Z200" s="53"/>
     </row>
-    <row r="201" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I201" s="20">
         <v>379</v>
       </c>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="Z201" s="53"/>
     </row>
-    <row r="202" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I202" s="20">
         <v>451</v>
       </c>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="Z202" s="53"/>
     </row>
-    <row r="203" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I203" s="20">
         <v>467</v>
       </c>
@@ -19640,7 +19640,7 @@
       </c>
       <c r="Z203" s="53"/>
     </row>
-    <row r="204" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I204" s="20">
         <v>508</v>
       </c>
@@ -19708,7 +19708,7 @@
       </c>
       <c r="Z204" s="53"/>
     </row>
-    <row r="205" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I205" s="20">
         <v>546</v>
       </c>
@@ -19776,7 +19776,7 @@
       </c>
       <c r="Z205" s="53"/>
     </row>
-    <row r="206" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I206" s="20">
         <v>563</v>
       </c>
@@ -19844,7 +19844,7 @@
       </c>
       <c r="Z206" s="53"/>
     </row>
-    <row r="207" spans="9:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I207" s="20">
         <v>579</v>
       </c>
@@ -19912,7 +19912,7 @@
       </c>
       <c r="Z207" s="53"/>
     </row>
-    <row r="208" spans="9:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="9:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I208" s="58">
         <v>623</v>
       </c>
@@ -19990,22 +19990,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="22" width="5.90625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="5.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G3" s="2">
         <v>29</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G4" s="2">
         <v>72</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G5" s="2">
         <v>211</v>
       </c>
@@ -20254,7 +20254,7 @@
       </c>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G6" s="2">
         <v>212</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G7" s="2">
         <v>293</v>
       </c>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G8" s="2">
         <v>310</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G9" s="2">
         <v>379</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G10" s="2">
         <v>451</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G11" s="2">
         <v>467</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G12" s="2">
         <v>508</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G13" s="2">
         <v>546</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G14" s="2">
         <v>563</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G15" s="2">
         <v>579</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="6:22" x14ac:dyDescent="0.2">
       <c r="G16" s="2">
         <v>623</v>
       </c>
@@ -20770,8 +20770,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="9">
         <v>0.98543294650835767</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>0.10720148741562197</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H20" s="4">
         <v>0.70887347964002279</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>0.42820605638239884</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H21" s="4">
         <v>0.80732098050743839</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>0.80742452867520764</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H22" s="4">
         <v>0.73595692274006186</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>0.17370394356127128</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H23" s="4">
         <v>3.9224256210796504E-2</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>0.29870015708068542</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="s">
         <v>0</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>0.28815103814999543</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>0.72006796783120608</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>1.7521167453122528</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>0.12193981268180099</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>1.5914903870679029</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>0.48435968853521061</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>1.3126398606620704</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>0.66261912889244723</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>0.48539076634814105</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>1.7890200701405652</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>0.6498180858069772</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>0.36644785265338475</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>1.4639033850007417</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>0.68505221623907497</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>2.3386661994869109</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>0.86778674769622932</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>1.8945684811743435</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>0.57549783406914157</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>1.9682533398165747</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>0.78670480840309553</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>1.8264585934635744</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>6.269063258942964E-2</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>0.96508195086846471</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>0.97170420996041473</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>2.29354696602255</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>0.19944306216056973</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>1.5984353277102095</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>0.29771639311389941</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>1.219459743753414</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V42" s="5">
         <f>SQRT(SUMXMY2(H2:V16,H26:V40)/COUNT(H2:V16))</f>
         <v>2.0180038033046261</v>
@@ -22367,29 +22367,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" customWidth="1"/>
-    <col min="11" max="15" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="11" max="15" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="K1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="I2" s="14" t="s">
         <v>34</v>
       </c>
@@ -22412,2046 +22430,2035 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.97989092683992063</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.94711819358191407</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.53206044742154845</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.59488863599495312</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.53397663344883051</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3">
-        <f>MATCH(I3,$B$4:$B$17)</f>
+        <f>MATCH(I3,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K3">
-        <f ca="1">OFFSET($B$3,$J3,K$2)</f>
+        <f ca="1">OFFSET($B$2,$J3,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:O3" ca="1" si="0">OFFSET($B$3,$J3,L$2)</f>
+        <f ca="1">OFFSET($B$2,$J3,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M3">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($B$2,$J3,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($B$2,$J3,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O3">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET($B$2,$J3,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <f>A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15">
-        <v>0.97989092683992063</v>
+        <v>5.4999869712471616E-2</v>
       </c>
       <c r="D4" s="15">
-        <v>0.94711819358191407</v>
+        <v>0.94416478266069237</v>
       </c>
       <c r="E4" s="15">
-        <v>0.53206044742154845</v>
+        <v>0.98482917825580585</v>
       </c>
       <c r="F4" s="15">
-        <v>0.59488863599495312</v>
+        <v>0.77378917696551031</v>
       </c>
       <c r="G4" s="15">
-        <v>0.53397663344883051</v>
+        <v>0.69994006736215331</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J50" si="1">MATCH(I4,$B$4:$B$17)</f>
+        <f>MATCH(I4,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:O50" ca="1" si="2">OFFSET($B$3,$J4,K$2)</f>
+        <f ca="1">OFFSET($B$2,$J4,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L4">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J4,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J4,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N4">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J4,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O4">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J4,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>A4+1</f>
-        <v>2</v>
+        <f t="shared" ref="A5:A16" si="0">A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15">
-        <v>5.4999869712471616E-2</v>
+        <v>0.73632955924936017</v>
       </c>
       <c r="D5" s="15">
-        <v>0.94416478266069237</v>
+        <v>0.15697824407816485</v>
       </c>
       <c r="E5" s="15">
-        <v>0.98482917825580585</v>
+        <v>0.95647259284992836</v>
       </c>
       <c r="F5" s="15">
-        <v>0.77378917696551031</v>
+        <v>5.7903898747101445E-3</v>
       </c>
       <c r="G5" s="15">
-        <v>0.69994006736215331</v>
+        <v>0.4735724122574797</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>MATCH(I5,$B$3:$B$16)</f>
         <v>3</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J5,K$2)</f>
         <v>0.73632955924936017</v>
       </c>
       <c r="L5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J5,L$2)</f>
         <v>0.15697824407816485</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J5,M$2)</f>
         <v>0.95647259284992836</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J5,N$2)</f>
         <v>5.7903898747101445E-3</v>
       </c>
       <c r="O5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J5,O$2)</f>
         <v>0.4735724122574797</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" ref="A6:A17" si="3">A5+1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15">
-        <v>0.73632955924936017</v>
+        <v>0.58415340391754378</v>
       </c>
       <c r="D6" s="15">
-        <v>0.15697824407816485</v>
+        <v>0.36467816862987479</v>
       </c>
       <c r="E6" s="15">
-        <v>0.95647259284992836</v>
+        <v>0.52498257197754361</v>
       </c>
       <c r="F6" s="15">
-        <v>5.7903898747101445E-3</v>
+        <v>7.5560804381979096E-2</v>
       </c>
       <c r="G6" s="15">
-        <v>0.4735724122574797</v>
+        <v>0.25177752293467814</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>MATCH(I6,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J6,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J6,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J6,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J6,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J6,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15">
-        <v>0.58415340391754378</v>
+        <v>0.67962259835936334</v>
       </c>
       <c r="D7" s="15">
-        <v>0.36467816862987479</v>
+        <v>0.63318697888527931</v>
       </c>
       <c r="E7" s="15">
-        <v>0.52498257197754361</v>
+        <v>0.77685358673100546</v>
       </c>
       <c r="F7" s="15">
-        <v>7.5560804381979096E-2</v>
+        <v>0.33864080369064142</v>
       </c>
       <c r="G7" s="15">
-        <v>0.25177752293467814</v>
+        <v>0.34443488792983934</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>MATCH(I7,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J7,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J7,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J7,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J7,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J7,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15">
-        <v>0.67962259835936334</v>
+        <v>1.5261750116581596E-2</v>
       </c>
       <c r="D8" s="15">
-        <v>0.63318697888527931</v>
+        <v>0.25452268329216743</v>
       </c>
       <c r="E8" s="15">
-        <v>0.77685358673100546</v>
+        <v>0.94866104322052591</v>
       </c>
       <c r="F8" s="15">
-        <v>0.33864080369064142</v>
+        <v>0.64594164042548985</v>
       </c>
       <c r="G8" s="15">
-        <v>0.34443488792983934</v>
+        <v>0.30074448486092797</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>MATCH(I8,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J8,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L8">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J8,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J8,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J8,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J8,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="15">
-        <v>1.5261750116581596E-2</v>
+        <v>0.40048371728794052</v>
       </c>
       <c r="D9" s="15">
-        <v>0.25452268329216743</v>
+        <v>0.73581988094897566</v>
       </c>
       <c r="E9" s="15">
-        <v>0.94866104322052591</v>
+        <v>0.13374143796211835</v>
       </c>
       <c r="F9" s="15">
-        <v>0.64594164042548985</v>
+        <v>0.38698326866252519</v>
       </c>
       <c r="G9" s="15">
-        <v>0.30074448486092797</v>
+        <v>0.4798617159078773</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>MATCH(I9,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J9,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J9,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J9,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J9,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J9,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15">
-        <v>0.40048371728794052</v>
+        <v>0.22269035527863412</v>
       </c>
       <c r="D10" s="15">
-        <v>0.73581988094897566</v>
+        <v>0.10223445304756063</v>
       </c>
       <c r="E10" s="15">
-        <v>0.13374143796211835</v>
+        <v>1.0804108255239364E-2</v>
       </c>
       <c r="F10" s="15">
-        <v>0.38698326866252519</v>
+        <v>0.93294528715457004</v>
       </c>
       <c r="G10" s="15">
-        <v>0.4798617159078773</v>
+        <v>0.10001791494791945</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>MATCH(I10,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J10,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J10,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J10,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J10,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J10,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15">
-        <v>0.22269035527863412</v>
+        <v>3.1164534687827539E-3</v>
       </c>
       <c r="D11" s="15">
-        <v>0.10223445304756063</v>
+        <v>0.27764458098446176</v>
       </c>
       <c r="E11" s="15">
-        <v>1.0804108255239364E-2</v>
+        <v>0.24821234705248452</v>
       </c>
       <c r="F11" s="15">
-        <v>0.93294528715457004</v>
+        <v>0.23784066521317482</v>
       </c>
       <c r="G11" s="15">
-        <v>0.10001791494791945</v>
+        <v>0.88310751344614902</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>MATCH(I11,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J11,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J11,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J11,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J11,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J11,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="15">
-        <v>3.1164534687827539E-3</v>
+        <v>0.83465956667016927</v>
       </c>
       <c r="D12" s="15">
-        <v>0.27764458098446176</v>
+        <v>0.16971720870591467</v>
       </c>
       <c r="E12" s="15">
-        <v>0.24821234705248452</v>
+        <v>0.4589162683166722</v>
       </c>
       <c r="F12" s="15">
-        <v>0.23784066521317482</v>
+        <v>0.95557205805265322</v>
       </c>
       <c r="G12" s="15">
-        <v>0.88310751344614902</v>
+        <v>0.55359253248937768</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>MATCH(I12,$B$3:$B$16)</f>
         <v>12</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J12,K$2)</f>
         <v>0.50367148319535759</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J12,L$2)</f>
         <v>0.56966324069323948</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J12,M$2)</f>
         <v>0.50657513266100218</v>
       </c>
       <c r="N12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J12,N$2)</f>
         <v>0.99873500576471386</v>
       </c>
       <c r="O12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J12,O$2)</f>
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="15">
-        <v>0.83465956667016927</v>
+        <v>0.43290624145552947</v>
       </c>
       <c r="D13" s="15">
-        <v>0.16971720870591467</v>
+        <v>0.40809529087024787</v>
       </c>
       <c r="E13" s="15">
-        <v>0.4589162683166722</v>
+        <v>0.42556865796843246</v>
       </c>
       <c r="F13" s="15">
-        <v>0.95557205805265322</v>
+        <v>1.3404993453246639E-2</v>
       </c>
       <c r="G13" s="15">
-        <v>0.55359253248937768</v>
+        <v>0.85110321563536828</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>MATCH(I13,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J13,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J13,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J13,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J13,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J13,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="15">
-        <v>0.43290624145552947</v>
+        <v>0.50367148319535759</v>
       </c>
       <c r="D14" s="15">
-        <v>0.40809529087024787</v>
+        <v>0.56966324069323948</v>
       </c>
       <c r="E14" s="15">
-        <v>0.42556865796843246</v>
+        <v>0.50657513266100218</v>
       </c>
       <c r="F14" s="15">
-        <v>1.3404993453246639E-2</v>
+        <v>0.99873500576471386</v>
       </c>
       <c r="G14" s="15">
-        <v>0.85110321563536828</v>
+        <v>9.4050801405122342E-2</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>MATCH(I14,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J14,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J14,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J14,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J14,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J14,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C15" s="15">
-        <v>0.50367148319535759</v>
+        <v>0.75797227211783047</v>
       </c>
       <c r="D15" s="15">
-        <v>0.56966324069323948</v>
+        <v>0.51344191714387755</v>
       </c>
       <c r="E15" s="15">
-        <v>0.50657513266100218</v>
+        <v>0.43673893173049494</v>
       </c>
       <c r="F15" s="15">
-        <v>0.99873500576471386</v>
+        <v>0.62515086175889167</v>
       </c>
       <c r="G15" s="15">
-        <v>9.4050801405122342E-2</v>
+        <v>0.23181135090309624</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>MATCH(I15,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J15,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J15,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J15,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J15,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O15">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J15,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="15">
-        <v>0.75797227211783047</v>
+        <v>0.9176939574212255</v>
       </c>
       <c r="D16" s="15">
-        <v>0.51344191714387755</v>
+        <v>0.93788428943297442</v>
       </c>
       <c r="E16" s="15">
-        <v>0.43673893173049494</v>
+        <v>0.38635736807754995</v>
       </c>
       <c r="F16" s="15">
-        <v>0.62515086175889167</v>
+        <v>0.87466584376445833</v>
       </c>
       <c r="G16" s="15">
-        <v>0.23181135090309624</v>
+        <v>0.90610742917467313</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>MATCH(I16,$B$3:$B$16)</f>
         <v>12</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J16,K$2)</f>
         <v>0.50367148319535759</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J16,L$2)</f>
         <v>0.56966324069323948</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J16,M$2)</f>
         <v>0.50657513266100218</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J16,N$2)</f>
         <v>0.99873500576471386</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J16,O$2)</f>
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.9176939574212255</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.93788428943297442</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.38635736807754995</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.87466584376445833</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.90610742917467313</v>
-      </c>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H17" s="13"/>
       <c r="I17" t="s">
         <v>21</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>MATCH(I17,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J17,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J17,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J17,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J17,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J17,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
         <v>18</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>MATCH(I18,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J18,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J18,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J18,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J18,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J18,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>44</v>
+      </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>MATCH(I19,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J19,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J19,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J19,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J19,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J19,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>MATCH(I20,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J20,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J20,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J20,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J20,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J20,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.97989092683992063</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.94711819358191407</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.53206044742154845</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.59488863599495312</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.53397663344883051</v>
+      </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>MATCH(I21,$B$3:$B$16)</f>
         <v>4</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J21,K$2)</f>
         <v>0.58415340391754378</v>
       </c>
       <c r="L21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J21,L$2)</f>
         <v>0.36467816862987479</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J21,M$2)</f>
         <v>0.52498257197754361</v>
       </c>
       <c r="N21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J21,N$2)</f>
         <v>7.5560804381979096E-2</v>
       </c>
       <c r="O21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J21,O$2)</f>
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="16">
+        <v>5.4999869712471616E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.94416478266069237</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.98482917825580585</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.77378917696551031</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.69994006736215331</v>
+      </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>MATCH(I22,$B$3:$B$16)</f>
         <v>10</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J22,K$2)</f>
         <v>0.83465956667016927</v>
       </c>
       <c r="L22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J22,L$2)</f>
         <v>0.16971720870591467</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J22,M$2)</f>
         <v>0.4589162683166722</v>
       </c>
       <c r="N22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J22,N$2)</f>
         <v>0.95557205805265322</v>
       </c>
       <c r="O22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J22,O$2)</f>
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.73632955924936017</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.15697824407816485</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.95647259284992836</v>
+      </c>
+      <c r="F23" s="16">
+        <v>5.7903898747101445E-3</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.4735724122574797</v>
+      </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>MATCH(I23,$B$3:$B$16)</f>
         <v>9</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J23,K$2)</f>
         <v>3.1164534687827539E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J23,L$2)</f>
         <v>0.27764458098446176</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J23,M$2)</f>
         <v>0.24821234705248452</v>
       </c>
       <c r="N23">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J23,N$2)</f>
         <v>0.23784066521317482</v>
       </c>
       <c r="O23">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J23,O$2)</f>
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="63" t="s">
-        <v>44</v>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.58415340391754378</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.36467816862987479</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.52498257197754361</v>
+      </c>
+      <c r="F24" s="16">
+        <v>7.5560804381979096E-2</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.25177752293467814</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>MATCH(I24,$B$3:$B$16)</f>
         <v>12</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J24,K$2)</f>
         <v>0.50367148319535759</v>
       </c>
       <c r="L24">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J24,L$2)</f>
         <v>0.56966324069323948</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J24,M$2)</f>
         <v>0.50657513266100218</v>
       </c>
       <c r="N24">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J24,N$2)</f>
         <v>0.99873500576471386</v>
       </c>
       <c r="O24">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J24,O$2)</f>
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.67962259835936334</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.63318697888527931</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.77685358673100546</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.33864080369064142</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.34443488792983934</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>MATCH(I25,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J25,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L25">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J25,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M25">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J25,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N25">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J25,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O25">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J25,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C26" s="16">
-        <v>0.97989092683992063</v>
+        <v>1.5261750116581596E-2</v>
       </c>
       <c r="D26" s="16">
-        <v>0.94711819358191407</v>
+        <v>0.25452268329216743</v>
       </c>
       <c r="E26" s="16">
-        <v>0.53206044742154845</v>
+        <v>0.94866104322052591</v>
       </c>
       <c r="F26" s="16">
-        <v>0.59488863599495312</v>
+        <v>0.64594164042548985</v>
       </c>
       <c r="G26" s="16">
-        <v>0.53397663344883051</v>
+        <v>0.30074448486092797</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>MATCH(I26,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J26,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L26">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J26,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M26">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J26,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J26,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O26">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J26,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="16">
-        <v>5.4999869712471616E-2</v>
+        <v>0.40048371728794052</v>
       </c>
       <c r="D27" s="16">
-        <v>0.94416478266069237</v>
+        <v>0.73581988094897566</v>
       </c>
       <c r="E27" s="16">
-        <v>0.98482917825580585</v>
+        <v>0.13374143796211835</v>
       </c>
       <c r="F27" s="16">
-        <v>0.77378917696551031</v>
+        <v>0.38698326866252519</v>
       </c>
       <c r="G27" s="16">
-        <v>0.69994006736215331</v>
+        <v>0.4798617159078773</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>MATCH(I27,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J27,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L27">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J27,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J27,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N27">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J27,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O27">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J27,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="16">
-        <v>0.73632955924936017</v>
+        <v>0.22269035527863412</v>
       </c>
       <c r="D28" s="16">
-        <v>0.15697824407816485</v>
+        <v>0.10223445304756063</v>
       </c>
       <c r="E28" s="16">
-        <v>0.95647259284992836</v>
+        <v>1.0804108255239364E-2</v>
       </c>
       <c r="F28" s="16">
-        <v>5.7903898747101445E-3</v>
+        <v>0.93294528715457004</v>
       </c>
       <c r="G28" s="16">
-        <v>0.4735724122574797</v>
+        <v>0.10001791494791945</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>MATCH(I28,$B$3:$B$16)</f>
         <v>4</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J28,K$2)</f>
         <v>0.58415340391754378</v>
       </c>
       <c r="L28">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J28,L$2)</f>
         <v>0.36467816862987479</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J28,M$2)</f>
         <v>0.52498257197754361</v>
       </c>
       <c r="N28">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J28,N$2)</f>
         <v>7.5560804381979096E-2</v>
       </c>
       <c r="O28">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J28,O$2)</f>
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16">
-        <v>0.58415340391754378</v>
+        <v>3.1164534687827539E-3</v>
       </c>
       <c r="D29" s="16">
-        <v>0.36467816862987479</v>
+        <v>0.27764458098446176</v>
       </c>
       <c r="E29" s="16">
-        <v>0.52498257197754361</v>
+        <v>0.24821234705248452</v>
       </c>
       <c r="F29" s="16">
-        <v>7.5560804381979096E-2</v>
+        <v>0.23784066521317482</v>
       </c>
       <c r="G29" s="16">
-        <v>0.25177752293467814</v>
+        <v>0.88310751344614902</v>
       </c>
       <c r="I29" t="s">
         <v>28</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>MATCH(I29,$B$3:$B$16)</f>
         <v>14</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J29,K$2)</f>
         <v>0.9176939574212255</v>
       </c>
       <c r="L29">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J29,L$2)</f>
         <v>0.93788428943297442</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J29,M$2)</f>
         <v>0.38635736807754995</v>
       </c>
       <c r="N29">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J29,N$2)</f>
         <v>0.87466584376445833</v>
       </c>
       <c r="O29">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J29,O$2)</f>
         <v>0.90610742917467313</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16">
-        <v>0.67962259835936334</v>
+        <v>0.83465956667016927</v>
       </c>
       <c r="D30" s="16">
-        <v>0.63318697888527931</v>
+        <v>0.16971720870591467</v>
       </c>
       <c r="E30" s="16">
-        <v>0.77685358673100546</v>
+        <v>0.4589162683166722</v>
       </c>
       <c r="F30" s="16">
-        <v>0.33864080369064142</v>
+        <v>0.95557205805265322</v>
       </c>
       <c r="G30" s="16">
-        <v>0.34443488792983934</v>
+        <v>0.55359253248937768</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>MATCH(I30,$B$3:$B$16)</f>
         <v>9</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J30,K$2)</f>
         <v>3.1164534687827539E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J30,L$2)</f>
         <v>0.27764458098446176</v>
       </c>
       <c r="M30">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J30,M$2)</f>
         <v>0.24821234705248452</v>
       </c>
       <c r="N30">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J30,N$2)</f>
         <v>0.23784066521317482</v>
       </c>
       <c r="O30">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J30,O$2)</f>
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" s="16">
-        <v>1.5261750116581596E-2</v>
+        <v>0.43290624145552947</v>
       </c>
       <c r="D31" s="16">
-        <v>0.25452268329216743</v>
+        <v>0.40809529087024787</v>
       </c>
       <c r="E31" s="16">
-        <v>0.94866104322052591</v>
+        <v>0.42556865796843246</v>
       </c>
       <c r="F31" s="16">
-        <v>0.64594164042548985</v>
+        <v>1.3404993453246639E-2</v>
       </c>
       <c r="G31" s="16">
-        <v>0.30074448486092797</v>
+        <v>0.85110321563536828</v>
       </c>
       <c r="I31" t="s">
         <v>29</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>MATCH(I31,$B$3:$B$16)</f>
         <v>6</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J31,K$2)</f>
         <v>1.5261750116581596E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J31,L$2)</f>
         <v>0.25452268329216743</v>
       </c>
       <c r="M31">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J31,M$2)</f>
         <v>0.94866104322052591</v>
       </c>
       <c r="N31">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J31,N$2)</f>
         <v>0.64594164042548985</v>
       </c>
       <c r="O31">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J31,O$2)</f>
         <v>0.30074448486092797</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C32" s="16">
-        <v>0.40048371728794052</v>
+        <v>0.50367148319535759</v>
       </c>
       <c r="D32" s="16">
-        <v>0.73581988094897566</v>
+        <v>0.56966324069323948</v>
       </c>
       <c r="E32" s="16">
-        <v>0.13374143796211835</v>
+        <v>0.50657513266100218</v>
       </c>
       <c r="F32" s="16">
-        <v>0.38698326866252519</v>
+        <v>0.99873500576471386</v>
       </c>
       <c r="G32" s="16">
-        <v>0.4798617159078773</v>
+        <v>9.4050801405122342E-2</v>
       </c>
       <c r="I32" t="s">
         <v>30</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>MATCH(I32,$B$3:$B$16)</f>
         <v>5</v>
       </c>
       <c r="K32">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J32,K$2)</f>
         <v>0.67962259835936334</v>
       </c>
       <c r="L32">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J32,L$2)</f>
         <v>0.63318697888527931</v>
       </c>
       <c r="M32">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J32,M$2)</f>
         <v>0.77685358673100546</v>
       </c>
       <c r="N32">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J32,N$2)</f>
         <v>0.33864080369064142</v>
       </c>
       <c r="O32">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J32,O$2)</f>
         <v>0.34443488792983934</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C33" s="16">
-        <v>0.22269035527863412</v>
+        <v>0.75797227211783047</v>
       </c>
       <c r="D33" s="16">
-        <v>0.10223445304756063</v>
+        <v>0.51344191714387755</v>
       </c>
       <c r="E33" s="16">
-        <v>1.0804108255239364E-2</v>
+        <v>0.43673893173049494</v>
       </c>
       <c r="F33" s="16">
-        <v>0.93294528715457004</v>
+        <v>0.62515086175889167</v>
       </c>
       <c r="G33" s="16">
-        <v>0.10001791494791945</v>
+        <v>0.23181135090309624</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>MATCH(I33,$B$3:$B$16)</f>
         <v>2</v>
       </c>
       <c r="K33">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J33,K$2)</f>
         <v>5.4999869712471616E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J33,L$2)</f>
         <v>0.94416478266069237</v>
       </c>
       <c r="M33">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J33,M$2)</f>
         <v>0.98482917825580585</v>
       </c>
       <c r="N33">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J33,N$2)</f>
         <v>0.77378917696551031</v>
       </c>
       <c r="O33">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J33,O$2)</f>
         <v>0.69994006736215331</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34" s="16">
-        <v>3.1164534687827539E-3</v>
+        <v>0.9176939574212255</v>
       </c>
       <c r="D34" s="16">
-        <v>0.27764458098446176</v>
+        <v>0.93788428943297442</v>
       </c>
       <c r="E34" s="16">
-        <v>0.24821234705248452</v>
+        <v>0.38635736807754995</v>
       </c>
       <c r="F34" s="16">
-        <v>0.23784066521317482</v>
+        <v>0.87466584376445833</v>
       </c>
       <c r="G34" s="16">
-        <v>0.88310751344614902</v>
+        <v>0.90610742917467313</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>MATCH(I34,$B$3:$B$16)</f>
         <v>7</v>
       </c>
       <c r="K34">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J34,K$2)</f>
         <v>0.40048371728794052</v>
       </c>
       <c r="L34">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J34,L$2)</f>
         <v>0.73581988094897566</v>
       </c>
       <c r="M34">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J34,M$2)</f>
         <v>0.13374143796211835</v>
       </c>
       <c r="N34">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J34,N$2)</f>
         <v>0.38698326866252519</v>
       </c>
       <c r="O34">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J34,O$2)</f>
         <v>0.4798617159078773</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="16">
-        <v>0.83465956667016927</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0.16971720870591467</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0.4589162683166722</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0.95557205805265322</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0.55359253248937768</v>
-      </c>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>18</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f>MATCH(I35,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K35">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J35,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L35">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J35,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M35">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J35,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J35,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O35">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J35,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0.43290624145552947</v>
-      </c>
-      <c r="D36" s="16">
-        <v>0.40809529087024787</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0.42556865796843246</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1.3404993453246639E-2</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0.85110321563536828</v>
-      </c>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>23</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f>MATCH(I36,$B$3:$B$16)</f>
         <v>4</v>
       </c>
       <c r="K36">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J36,K$2)</f>
         <v>0.58415340391754378</v>
       </c>
       <c r="L36">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J36,L$2)</f>
         <v>0.36467816862987479</v>
       </c>
       <c r="M36">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J36,M$2)</f>
         <v>0.52498257197754361</v>
       </c>
       <c r="N36">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J36,N$2)</f>
         <v>7.5560804381979096E-2</v>
       </c>
       <c r="O36">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J36,O$2)</f>
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>12</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="16">
-        <v>0.50367148319535759</v>
-      </c>
-      <c r="D37" s="16">
-        <v>0.56966324069323948</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0.50657513266100218</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0.99873500576471386</v>
-      </c>
-      <c r="G37" s="16">
-        <v>9.4050801405122342E-2</v>
-      </c>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>24</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f>MATCH(I37,$B$3:$B$16)</f>
         <v>10</v>
       </c>
       <c r="K37">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J37,K$2)</f>
         <v>0.83465956667016927</v>
       </c>
       <c r="L37">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J37,L$2)</f>
         <v>0.16971720870591467</v>
       </c>
       <c r="M37">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J37,M$2)</f>
         <v>0.4589162683166722</v>
       </c>
       <c r="N37">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J37,N$2)</f>
         <v>0.95557205805265322</v>
       </c>
       <c r="O37">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J37,O$2)</f>
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0.75797227211783047</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0.51344191714387755</v>
-      </c>
-      <c r="E38" s="16">
-        <v>0.43673893173049494</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0.62515086175889167</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0.23181135090309624</v>
-      </c>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>25</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f>MATCH(I38,$B$3:$B$16)</f>
         <v>9</v>
       </c>
       <c r="K38">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J38,K$2)</f>
         <v>3.1164534687827539E-3</v>
       </c>
       <c r="L38">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J38,L$2)</f>
         <v>0.27764458098446176</v>
       </c>
       <c r="M38">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J38,M$2)</f>
         <v>0.24821234705248452</v>
       </c>
       <c r="N38">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J38,N$2)</f>
         <v>0.23784066521317482</v>
       </c>
       <c r="O38">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J38,O$2)</f>
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="16">
-        <v>0.9176939574212255</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0.93788428943297442</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0.38635736807754995</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0.87466584376445833</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0.90610742917467313</v>
-      </c>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
         <v>33</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f>MATCH(I39,$B$3:$B$16)</f>
         <v>13</v>
       </c>
       <c r="K39">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J39,K$2)</f>
         <v>0.75797227211783047</v>
       </c>
       <c r="L39">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J39,L$2)</f>
         <v>0.51344191714387755</v>
       </c>
       <c r="M39">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J39,M$2)</f>
         <v>0.43673893173049494</v>
       </c>
       <c r="N39">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J39,N$2)</f>
         <v>0.62515086175889167</v>
       </c>
       <c r="O39">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J39,O$2)</f>
         <v>0.23181135090309624</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f>MATCH(I40,$B$3:$B$16)</f>
         <v>11</v>
       </c>
       <c r="K40">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J40,K$2)</f>
         <v>0.43290624145552947</v>
       </c>
       <c r="L40">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J40,L$2)</f>
         <v>0.40809529087024787</v>
       </c>
       <c r="M40">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J40,M$2)</f>
         <v>0.42556865796843246</v>
       </c>
       <c r="N40">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J40,N$2)</f>
         <v>1.3404993453246639E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J40,O$2)</f>
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f>MATCH(I41,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K41">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J41,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L41">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J41,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M41">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J41,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J41,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O41">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J41,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
         <v>19</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f>MATCH(I42,$B$3:$B$16)</f>
         <v>1</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J42,K$2)</f>
         <v>0.97989092683992063</v>
       </c>
       <c r="L42">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J42,L$2)</f>
         <v>0.94711819358191407</v>
       </c>
       <c r="M42">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J42,M$2)</f>
         <v>0.53206044742154845</v>
       </c>
       <c r="N42">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J42,N$2)</f>
         <v>0.59488863599495312</v>
       </c>
       <c r="O42">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J42,O$2)</f>
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f>MATCH(I43,$B$3:$B$16)</f>
         <v>8</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J43,K$2)</f>
         <v>0.22269035527863412</v>
       </c>
       <c r="L43">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J43,L$2)</f>
         <v>0.10223445304756063</v>
       </c>
       <c r="M43">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J43,M$2)</f>
         <v>1.0804108255239364E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J43,N$2)</f>
         <v>0.93294528715457004</v>
       </c>
       <c r="O43">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J43,O$2)</f>
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
         <v>23</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f>MATCH(I44,$B$3:$B$16)</f>
         <v>4</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J44,K$2)</f>
         <v>0.58415340391754378</v>
       </c>
       <c r="L44">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J44,L$2)</f>
         <v>0.36467816862987479</v>
       </c>
       <c r="M44">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J44,M$2)</f>
         <v>0.52498257197754361</v>
       </c>
       <c r="N44">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J44,N$2)</f>
         <v>7.5560804381979096E-2</v>
       </c>
       <c r="O44">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J44,O$2)</f>
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I45" t="s">
         <v>24</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f>MATCH(I45,$B$3:$B$16)</f>
         <v>10</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J45,K$2)</f>
         <v>0.83465956667016927</v>
       </c>
       <c r="L45">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J45,L$2)</f>
         <v>0.16971720870591467</v>
       </c>
       <c r="M45">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J45,M$2)</f>
         <v>0.4589162683166722</v>
       </c>
       <c r="N45">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J45,N$2)</f>
         <v>0.95557205805265322</v>
       </c>
       <c r="O45">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J45,O$2)</f>
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
         <v>25</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f>MATCH(I46,$B$3:$B$16)</f>
         <v>9</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J46,K$2)</f>
         <v>3.1164534687827539E-3</v>
       </c>
       <c r="L46">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J46,L$2)</f>
         <v>0.27764458098446176</v>
       </c>
       <c r="M46">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J46,M$2)</f>
         <v>0.24821234705248452</v>
       </c>
       <c r="N46">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J46,N$2)</f>
         <v>0.23784066521317482</v>
       </c>
       <c r="O46">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J46,O$2)</f>
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
         <v>29</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f>MATCH(I47,$B$3:$B$16)</f>
         <v>6</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J47,K$2)</f>
         <v>1.5261750116581596E-2</v>
       </c>
       <c r="L47">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J47,L$2)</f>
         <v>0.25452268329216743</v>
       </c>
       <c r="M47">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J47,M$2)</f>
         <v>0.94866104322052591</v>
       </c>
       <c r="N47">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J47,N$2)</f>
         <v>0.64594164042548985</v>
       </c>
       <c r="O47">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J47,O$2)</f>
         <v>0.30074448486092797</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I48" t="s">
         <v>30</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f>MATCH(I48,$B$3:$B$16)</f>
         <v>5</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J48,K$2)</f>
         <v>0.67962259835936334</v>
       </c>
       <c r="L48">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J48,L$2)</f>
         <v>0.63318697888527931</v>
       </c>
       <c r="M48">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J48,M$2)</f>
         <v>0.77685358673100546</v>
       </c>
       <c r="N48">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J48,N$2)</f>
         <v>0.33864080369064142</v>
       </c>
       <c r="O48">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J48,O$2)</f>
         <v>0.34443488792983934</v>
       </c>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" t="s">
         <v>31</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f>MATCH(I49,$B$3:$B$16)</f>
         <v>2</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J49,K$2)</f>
         <v>5.4999869712471616E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J49,L$2)</f>
         <v>0.94416478266069237</v>
       </c>
       <c r="M49">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J49,M$2)</f>
         <v>0.98482917825580585</v>
       </c>
       <c r="N49">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J49,N$2)</f>
         <v>0.77378917696551031</v>
       </c>
       <c r="O49">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J49,O$2)</f>
         <v>0.69994006736215331</v>
       </c>
     </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
         <v>32</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f>MATCH(I50,$B$3:$B$16)</f>
         <v>7</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J50,K$2)</f>
         <v>0.40048371728794052</v>
       </c>
       <c r="L50">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J50,L$2)</f>
         <v>0.73581988094897566</v>
       </c>
       <c r="M50">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J50,M$2)</f>
         <v>0.13374143796211835</v>
       </c>
       <c r="N50">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J50,N$2)</f>
         <v>0.38698326866252519</v>
       </c>
       <c r="O50">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET($B$2,$J50,O$2)</f>
         <v>0.4798617159078773</v>
       </c>
     </row>
